--- a/results_disturbance/Results_PSO_PID_Disturbance_Test_1.xlsx
+++ b/results_disturbance/Results_PSO_PID_Disturbance_Test_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\QuadrotorPython\results_disturbance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\QuadrotorPython\results_disturbance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7C74CA-0DAF-4439-AB2A-297B0AA93C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8967284-38BC-4842-A38E-0714906A1800}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,12 +448,18 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -583,7 +589,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -648,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -713,7 +719,7 @@
         <v>1.0733298990106159</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -778,7 +784,7 @@
         <v>0.3887534183756518</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -843,7 +849,7 @@
         <v>1.6056040591537539</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -908,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -973,7 +979,7 @@
         <v>1.176996479725789</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>1.3734942906183309</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1168,7 +1174,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>0.62292884396437775</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1363,7 +1369,7 @@
         <v>0.30443137858419772</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1428,7 +1434,7 @@
         <v>1.792578305726517</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1493,7 +1499,7 @@
         <v>1.0266855547290681</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1558,7 +1564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1623,7 +1629,7 @@
         <v>0.1438654057617226</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1688,7 +1694,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1753,7 +1759,7 @@
         <v>1.599155285737317</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1818,7 +1824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>1.3206782954952561</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>1.385174631732768</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>1.6076213704012701</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2208,7 +2214,7 @@
         <v>0.8122709373611201</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>1.2594073027066279</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2403,7 +2409,7 @@
         <v>0.92261460138602869</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>1.642704589714953</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>MIN(B2:B31)</f>
         <v>3.3489438700620093E-2</v>

--- a/results_disturbance/Results_PSO_PID_Disturbance_Test_1.xlsx
+++ b/results_disturbance/Results_PSO_PID_Disturbance_Test_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\QuadrotorPython\results_disturbance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\QuadrotorPython\results_disturbance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8967284-38BC-4842-A38E-0714906A1800}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8543BD14-4DA1-4C41-BCDA-1A7A5CFFE3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Test</t>
   </si>
@@ -84,6 +84,15 @@
   <si>
     <t>Kd_psi</t>
   </si>
+  <si>
+    <t>Best Fitness</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std Deviation</t>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -134,13 +143,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -445,21 +471,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -589,7 +615,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -654,7 +680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -719,7 +745,7 @@
         <v>1.0733298990106159</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -784,7 +810,7 @@
         <v>0.3887534183756518</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -849,7 +875,7 @@
         <v>1.6056040591537539</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -914,7 +940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -979,7 +1005,7 @@
         <v>1.176996479725789</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1044,7 +1070,7 @@
         <v>1.3734942906183309</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1109,7 +1135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1174,7 +1200,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1239,7 +1265,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1304,7 +1330,7 @@
         <v>0.62292884396437775</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1369,7 +1395,7 @@
         <v>0.30443137858419772</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1434,7 +1460,7 @@
         <v>1.792578305726517</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1499,7 +1525,7 @@
         <v>1.0266855547290681</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1564,7 +1590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1629,7 +1655,7 @@
         <v>0.1438654057617226</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1694,7 +1720,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1759,7 +1785,7 @@
         <v>1.599155285737317</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1824,7 +1850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1889,7 +1915,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1954,7 +1980,7 @@
         <v>1.3206782954952561</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2019,7 +2045,7 @@
         <v>1.385174631732768</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2084,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2149,7 +2175,7 @@
         <v>1.6076213704012701</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2214,7 +2240,7 @@
         <v>0.8122709373611201</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2279,7 +2305,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2344,7 +2370,7 @@
         <v>1.2594073027066279</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2409,7 +2435,7 @@
         <v>0.92261460138602869</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2474,10 +2500,149 @@
         <v>1.642704589714953</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B33" s="2">
         <f>MIN(B2:B31)</f>
         <v>3.3489438700620093E-2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <v>10.91740842011748</v>
+      </c>
+      <c r="D34">
+        <v>0.96314973856450969</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>0.1</v>
+      </c>
+      <c r="G34">
+        <v>5.5913018481553139E-2</v>
+      </c>
+      <c r="H34">
+        <v>0.1</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>4.1491316135045593E-2</v>
+      </c>
+      <c r="K34">
+        <v>0.1</v>
+      </c>
+      <c r="L34">
+        <v>3.9589819825993202</v>
+      </c>
+      <c r="M34">
+        <v>0.1</v>
+      </c>
+      <c r="N34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <f>AVERAGE(C2:C31)</f>
+        <v>1.0590590590590587</v>
+      </c>
+      <c r="D36">
+        <f>_xlfn.STDEV.S(C2:C31)</f>
+        <v>1.127611307257349E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <f>AVERAGE(D2:D31)</f>
+        <v>1.8319571149153921</v>
+      </c>
+      <c r="D37">
+        <f>_xlfn.STDEV.S(D2:D31)</f>
+        <v>0.18718926880503739</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <f>AVERAGE(G2:G31)</f>
+        <v>7.6629331540330595E-2</v>
+      </c>
+      <c r="D38">
+        <f>_xlfn.STDEV.S(G2:G31)</f>
+        <v>1.4225833502742565E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <f>AVERAGE(H2:H31)</f>
+        <v>0.56002332418958367</v>
+      </c>
+      <c r="D39">
+        <f>_xlfn.STDEV.S(H2:H31)</f>
+        <v>9.2129772869283273E-3</v>
       </c>
     </row>
   </sheetData>
